--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Cd84</t>
@@ -437,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -522,49 +531,979 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>124.695138479003</v>
+        <v>0.01606766666666667</v>
       </c>
       <c r="H2">
-        <v>124.695138479003</v>
+        <v>0.048203</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0001155672280888067</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0001155672280888067</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>124.695138479003</v>
+        <v>0.01606766666666667</v>
       </c>
       <c r="N2">
-        <v>124.695138479003</v>
+        <v>0.048203</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0001155672280888067</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.0001155672280888067</v>
       </c>
       <c r="Q2">
-        <v>15548.87756029774</v>
+        <v>0.0002581699121111111</v>
       </c>
       <c r="R2">
-        <v>15548.87756029774</v>
+        <v>0.002323529209</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>1.335578420813028E-08</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>1.335578420813027E-08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.01606766666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.048203</v>
+      </c>
+      <c r="I3">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="J3">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.251363</v>
+      </c>
+      <c r="O3">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="P3">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="Q3">
+        <v>0.001346272298777778</v>
+      </c>
+      <c r="R3">
+        <v>0.012116450689</v>
+      </c>
+      <c r="S3">
+        <v>6.964607982715287E-08</v>
+      </c>
+      <c r="T3">
+        <v>6.964607982715285E-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01606766666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.048203</v>
+      </c>
+      <c r="I4">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="J4">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>137.294019</v>
+      </c>
+      <c r="N4">
+        <v>411.882057</v>
+      </c>
+      <c r="O4">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="P4">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="Q4">
+        <v>2.205994532619</v>
+      </c>
+      <c r="R4">
+        <v>19.853950793571</v>
+      </c>
+      <c r="S4">
+        <v>0.0001141216910253058</v>
+      </c>
+      <c r="T4">
+        <v>0.0001141216910253057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01606766666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.048203</v>
+      </c>
+      <c r="I5">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="J5">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>1.639197</v>
+      </c>
+      <c r="N5">
+        <v>4.917591</v>
+      </c>
+      <c r="O5">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="P5">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="Q5">
+        <v>0.026338070997</v>
+      </c>
+      <c r="R5">
+        <v>0.237042638973</v>
+      </c>
+      <c r="S5">
+        <v>1.362535199465667E-06</v>
+      </c>
+      <c r="T5">
+        <v>1.362535199465667E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.251363</v>
+      </c>
+      <c r="I6">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="J6">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01606766666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.048203</v>
+      </c>
+      <c r="O6">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="P6">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="Q6">
+        <v>0.001346272298777778</v>
+      </c>
+      <c r="R6">
+        <v>0.012116450689</v>
+      </c>
+      <c r="S6">
+        <v>6.964607982715287E-08</v>
+      </c>
+      <c r="T6">
+        <v>6.964607982715285E-08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.251363</v>
+      </c>
+      <c r="I7">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="J7">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.251363</v>
+      </c>
+      <c r="O7">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="P7">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="Q7">
+        <v>0.007020373085444444</v>
+      </c>
+      <c r="R7">
+        <v>0.063183357769</v>
+      </c>
+      <c r="S7">
+        <v>3.631817016283763E-07</v>
+      </c>
+      <c r="T7">
+        <v>3.631817016283763E-07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.251363</v>
+      </c>
+      <c r="I8">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="J8">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>137.294019</v>
+      </c>
+      <c r="N8">
+        <v>411.882057</v>
+      </c>
+      <c r="O8">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="P8">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="Q8">
+        <v>11.503545499299</v>
+      </c>
+      <c r="R8">
+        <v>103.531909493691</v>
+      </c>
+      <c r="S8">
+        <v>0.0005951075788061724</v>
+      </c>
+      <c r="T8">
+        <v>0.0005951075788061723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.251363</v>
+      </c>
+      <c r="I9">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="J9">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>1.639197</v>
+      </c>
+      <c r="N9">
+        <v>4.917591</v>
+      </c>
+      <c r="O9">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="P9">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="Q9">
+        <v>0.137344491837</v>
+      </c>
+      <c r="R9">
+        <v>1.236100426533</v>
+      </c>
+      <c r="S9">
+        <v>7.105178834165684E-06</v>
+      </c>
+      <c r="T9">
+        <v>7.105178834165682E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>137.294019</v>
+      </c>
+      <c r="H10">
+        <v>411.882057</v>
+      </c>
+      <c r="I10">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="J10">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01606766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.048203</v>
+      </c>
+      <c r="O10">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="P10">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="Q10">
+        <v>2.205994532619</v>
+      </c>
+      <c r="R10">
+        <v>19.853950793571</v>
+      </c>
+      <c r="S10">
+        <v>0.0001141216910253058</v>
+      </c>
+      <c r="T10">
+        <v>0.0001141216910253057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>137.294019</v>
+      </c>
+      <c r="H11">
+        <v>411.882057</v>
+      </c>
+      <c r="I11">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="J11">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.251363</v>
+      </c>
+      <c r="O11">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="P11">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="Q11">
+        <v>11.503545499299</v>
+      </c>
+      <c r="R11">
+        <v>103.531909493691</v>
+      </c>
+      <c r="S11">
+        <v>0.0005951075788061724</v>
+      </c>
+      <c r="T11">
+        <v>0.0005951075788061723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>137.294019</v>
+      </c>
+      <c r="H12">
+        <v>411.882057</v>
+      </c>
+      <c r="I12">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="J12">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>137.294019</v>
+      </c>
+      <c r="N12">
+        <v>411.882057</v>
+      </c>
+      <c r="O12">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="P12">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="Q12">
+        <v>18849.64765317237</v>
+      </c>
+      <c r="R12">
+        <v>169646.8288785513</v>
+      </c>
+      <c r="S12">
+        <v>0.9751400711122001</v>
+      </c>
+      <c r="T12">
+        <v>0.9751400711121997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>137.294019</v>
+      </c>
+      <c r="H13">
+        <v>411.882057</v>
+      </c>
+      <c r="I13">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="J13">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>1.639197</v>
+      </c>
+      <c r="N13">
+        <v>4.917591</v>
+      </c>
+      <c r="O13">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="P13">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="Q13">
+        <v>225.051944062743</v>
+      </c>
+      <c r="R13">
+        <v>2025.467496564687</v>
+      </c>
+      <c r="S13">
+        <v>0.01164250774206635</v>
+      </c>
+      <c r="T13">
+        <v>0.01164250774206635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>1.639197</v>
+      </c>
+      <c r="H14">
+        <v>4.917591</v>
+      </c>
+      <c r="I14">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="J14">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01606766666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.048203</v>
+      </c>
+      <c r="O14">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="P14">
+        <v>0.0001155672280888067</v>
+      </c>
+      <c r="Q14">
+        <v>0.026338070997</v>
+      </c>
+      <c r="R14">
+        <v>0.237042638973</v>
+      </c>
+      <c r="S14">
+        <v>1.362535199465667E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.362535199465667E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>1.639197</v>
+      </c>
+      <c r="H15">
+        <v>4.917591</v>
+      </c>
+      <c r="I15">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="J15">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.08378766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.251363</v>
+      </c>
+      <c r="O15">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="P15">
+        <v>0.0006026455854217936</v>
+      </c>
+      <c r="Q15">
+        <v>0.137344491837</v>
+      </c>
+      <c r="R15">
+        <v>1.236100426533</v>
+      </c>
+      <c r="S15">
+        <v>7.105178834165684E-06</v>
+      </c>
+      <c r="T15">
+        <v>7.105178834165682E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>1.639197</v>
+      </c>
+      <c r="H16">
+        <v>4.917591</v>
+      </c>
+      <c r="I16">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="J16">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>137.294019</v>
+      </c>
+      <c r="N16">
+        <v>411.882057</v>
+      </c>
+      <c r="O16">
+        <v>0.9874918081240979</v>
+      </c>
+      <c r="P16">
+        <v>0.9874918081240976</v>
+      </c>
+      <c r="Q16">
+        <v>225.051944062743</v>
+      </c>
+      <c r="R16">
+        <v>2025.467496564687</v>
+      </c>
+      <c r="S16">
+        <v>0.01164250774206635</v>
+      </c>
+      <c r="T16">
+        <v>0.01164250774206635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>1.639197</v>
+      </c>
+      <c r="H17">
+        <v>4.917591</v>
+      </c>
+      <c r="I17">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="J17">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>1.639197</v>
+      </c>
+      <c r="N17">
+        <v>4.917591</v>
+      </c>
+      <c r="O17">
+        <v>0.01178997906239162</v>
+      </c>
+      <c r="P17">
+        <v>0.01178997906239161</v>
+      </c>
+      <c r="Q17">
+        <v>2.686966804809</v>
+      </c>
+      <c r="R17">
+        <v>24.182701243281</v>
+      </c>
+      <c r="S17">
+        <v>0.0001390036062916327</v>
+      </c>
+      <c r="T17">
+        <v>0.0001390036062916326</v>
       </c>
     </row>
   </sheetData>
